--- a/Data Files/Input Validation/54. email/Auto_Email_C4.xlsx
+++ b/Data Files/Input Validation/54. email/Auto_Email_C4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D85FA5F-3EC2-40B8-963E-474043313FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3607DA5-69E8-44BE-B55F-1B9F63FE64C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -257,7 +257,7 @@
     <t>asdfgasdfgasdfgasdfgasdfgasdfgasdfgasdfgasdfgasdfgasdfgasdfgasdfgasdfgasdfgasdfgasdfgasdfg@gmail.com</t>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -344,9 +344,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -384,7 +384,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -490,7 +490,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -632,7 +632,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/54. email/Auto_Email_C4.xlsx
+++ b/Data Files/Input Validation/54. email/Auto_Email_C4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A92F45A-CA8C-406E-AC60-906F230FE99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67BECC8-F0BA-4BCD-AF9D-6C89FB05CD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -230,9 +230,6 @@
     <t>หลักประกัน</t>
   </si>
   <si>
-    <t>[|บริษัท|ทดสอบ|อัตโนมัติ|0|O]</t>
-  </si>
-  <si>
     <t>U0105556078229000</t>
   </si>
   <si>
@@ -257,7 +254,10 @@
     <t>asdfgasdfgasdfgasdfgasdfgasdfgasdfgasdfgasdfgasdfgasdfgasdfgasdfgasdfgasdfgasdfgasdfgasdfg@gmail.com</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>[|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -344,9 +344,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -384,7 +384,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -490,7 +490,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -632,7 +632,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -643,8 +643,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,13 +697,13 @@
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -754,7 +754,7 @@
         <v>16</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>17</v>
@@ -842,13 +842,13 @@
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -891,7 +891,7 @@
         <v>53</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>43</v>
@@ -938,7 +938,7 @@
         <v>63</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="AO2" s="2"/>
       <c r="AP2" s="3"/>
@@ -946,13 +946,13 @@
         <v>49</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>

--- a/Data Files/Input Validation/54. email/Auto_Email_C4.xlsx
+++ b/Data Files/Input Validation/54. email/Auto_Email_C4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67BECC8-F0BA-4BCD-AF9D-6C89FB05CD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C30857-CED0-49A1-AD21-3C6B81A6AF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -257,7 +257,7 @@
     <t>[|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/54. email/Auto_Email_C4.xlsx
+++ b/Data Files/Input Validation/54. email/Auto_Email_C4.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C30857-CED0-49A1-AD21-3C6B81A6AF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E40F8D-6456-4386-8205-D2E1AEAB072B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -257,7 +257,7 @@
     <t>[|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
@@ -643,8 +643,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
